--- a/biology/Médecine/Mary-Ellen_B._Taplin/Mary-Ellen_B._Taplin.xlsx
+++ b/biology/Médecine/Mary-Ellen_B._Taplin/Mary-Ellen_B._Taplin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary-Ellen B. Taplin, née en 1962, est une oncologue, directrice de recherche clinique au Dana Farber Cancer Institute, à Boston, aux États-Unis.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary-Ellen B. Taplin a reçu son diplôme de médecine en 1986 de l'université du Massachusetts, à Worcester. Elle a complété sa résidence de médecine interne et sa résidence en chef à l'université du Massachusetts Medical Center et a bénéficié d'une bourse de recherche en oncologie-hématologie du Beth Israel Hospital et de la Harvard Medical School au Longwood Medical and Academic Area de Boston[réf. nécessaire].
-De 1993 à 2003, à l'université du Massachusetts, Mary-Ellen B. Taplin a fait partie d'une équipe médicale d'oncologie-hématologie, d'abord comme assistante, puis professeure agrégée de médecine. Elle a ensuite rejoint l'Institut Dana-Farber Cancer[1].
+De 1993 à 2003, à l'université du Massachusetts, Mary-Ellen B. Taplin a fait partie d'une équipe médicale d'oncologie-hématologie, d'abord comme assistante, puis professeure agrégée de médecine. Elle a ensuite rejoint l'Institut Dana-Farber Cancer.
 </t>
         </is>
       </c>
